--- a/菜单接口描述.xlsx
+++ b/菜单接口描述.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,12 +49,16 @@
     <t>版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>能源监测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,11 +107,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,6 +190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -215,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -407,7 +418,7 @@
     <col min="8" max="8" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +444,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -446,12 +460,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -460,12 +474,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/菜单接口描述.xlsx
+++ b/菜单接口描述.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,15 +50,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能源监测系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>请选择...</t>
+  </si>
+  <si>
+    <t>请选择…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +102,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -116,7 +124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -190,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,7 +232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,24 +407,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,28 +450,754 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A67">
+      <formula1>"请选择...,能源监测系统,定额,央行,运维系统"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E67">
+      <formula1>"请选择…,王常宇,吕文文,王栋梁,文韬,李朋越"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -474,12 +1206,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/菜单接口描述.xlsx
+++ b/菜单接口描述.xlsx
@@ -1,53 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="24135" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>子菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面路径</t>
   </si>
   <si>
     <t>页面设计人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调用接口地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>版本号</t>
   </si>
   <si>
     <t>功能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>运维系统</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>吕文文</t>
+  </si>
+  <si>
+    <t>bee</t>
   </si>
   <si>
     <t>请选择...</t>
@@ -60,35 +67,368 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,9 +436,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -110,10 +692,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,14 +1036,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="4" width="19.625" customWidth="1"/>
@@ -435,181 +1065,193 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -617,10 +1259,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -628,10 +1270,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -639,10 +1281,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -650,10 +1292,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -661,10 +1303,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -672,10 +1314,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -683,10 +1325,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -694,10 +1336,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -705,10 +1347,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -716,10 +1358,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -727,10 +1369,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -738,10 +1380,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -749,10 +1391,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -760,10 +1402,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -771,10 +1413,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -782,10 +1424,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -793,10 +1435,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -804,10 +1446,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -815,10 +1457,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -826,10 +1468,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -837,10 +1479,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -848,10 +1490,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -859,10 +1501,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -870,10 +1512,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -881,10 +1523,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -892,10 +1534,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -903,10 +1545,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -914,10 +1556,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -925,10 +1567,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -936,10 +1578,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -947,10 +1589,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -958,10 +1600,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -969,10 +1611,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -980,10 +1622,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -991,10 +1633,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -1002,10 +1644,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -1013,10 +1655,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -1024,10 +1666,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -1035,10 +1677,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -1046,10 +1688,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -1057,10 +1699,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -1068,10 +1710,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -1079,10 +1721,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -1090,10 +1732,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -1101,10 +1743,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -1112,10 +1754,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -1123,10 +1765,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -1134,10 +1776,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -1145,10 +1787,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -1156,10 +1798,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -1167,17 +1809,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A67">
       <formula1>"请选择...,能源监测系统,定额,央行,运维系统"</formula1>
@@ -1186,35 +1827,42 @@
       <formula1>"请选择…,王常宇,吕文文,王栋梁,文韬,李朋越"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/菜单接口描述.xlsx
+++ b/菜单接口描述.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="11">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,15 +55,18 @@
   <si>
     <t>请选择…</t>
   </si>
+  <si>
+    <t>定额</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -198,6 +201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,14 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="4" width="19.625" customWidth="1"/>
@@ -424,7 +429,7 @@
     <col min="8" max="8" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,18 +455,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>333</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2">
+        <v>321313</v>
+      </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -472,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -483,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -494,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -505,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -516,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -527,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -538,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -549,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -560,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -571,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -582,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -593,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -604,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -615,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -626,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -637,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -648,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -659,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -670,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -681,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -692,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -703,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -714,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -725,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -736,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -747,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -758,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -769,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -780,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -791,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -802,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -813,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -824,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -835,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -846,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -857,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -868,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -879,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -890,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -901,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -912,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -923,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -934,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -945,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -956,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -967,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -978,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1192,12 +1206,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1206,12 +1220,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
